--- a/SeleniumProject/src/test/resources/TestData/TestData.xlsx
+++ b/SeleniumProject/src/test/resources/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C294B1-92DB-46C4-AB12-D3BA0DFBB9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D32E9-51B4-435A-8AD7-C4BDB1BE5B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Email" sheetId="3" r:id="rId3"/>
     <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
     <sheet name="SearchProduct" sheetId="6" r:id="rId5"/>
-    <sheet name="AccountCreationData" sheetId="7" r:id="rId6"/>
+    <sheet name="WomanSection" sheetId="8" r:id="rId6"/>
+    <sheet name="AccountCreationData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -291,9 +292,6 @@
     <t>newtest3@gmail.com</t>
   </si>
   <si>
-    <t>Test124@xyz.com</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -301,6 +299,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Test123@xyz.com</t>
   </si>
 </sst>
 </file>
@@ -436,7 +437,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,6 +457,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -465,7 +469,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,13 +824,13 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -1035,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1057,16 +1061,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F2A213C5-3A46-42DE-8F09-E8C5BF8834C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1141,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,7 +1159,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>52</v>
@@ -1166,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1186,6 +1193,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B54CC-8855-46B0-9734-F33E20C2A0D9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
